--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -32,19 +32,10 @@
     <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(Fund_PISHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PISHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
@@ -56,9 +47,6 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
-  </si>
-  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -158,143 +146,119 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(3.492)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.602 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.287)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.223)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.136)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.897 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.034)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.717)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.611)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.011 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.005)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.270)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.267)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.261)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.918)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.692)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.651)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.622)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.636)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.563)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.597)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.572)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.553)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.545)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.533)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.513)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.509)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.502)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.878 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.499)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.998 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.520)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.532)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.541)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.528)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.590)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.578)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.599)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.695)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.698)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.902)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.824)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.732)  </t>
+    <t xml:space="preserve">(0.959) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.056) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.094) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.344 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.069) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.026) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.181) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.004) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.174) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.172) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.360) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.173) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.108) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.023) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.035) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.048) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.071) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.011) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.994) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.990) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.978) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.968) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.969) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.966) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.965) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.971) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.975) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.985) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.993) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.989) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.995) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.036) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.027) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.075) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.053) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.028) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="84">
+  <numFmts count="76">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -371,14 +335,6 @@
     <numFmt numFmtId="50073" formatCode="0.000"/>
     <numFmt numFmtId="50074" formatCode="0.000"/>
     <numFmt numFmtId="50075" formatCode="0.000"/>
-    <numFmt numFmtId="50076" formatCode="0.000"/>
-    <numFmt numFmtId="50077" formatCode="0.000"/>
-    <numFmt numFmtId="50078" formatCode="0.000"/>
-    <numFmt numFmtId="50079" formatCode="0.000"/>
-    <numFmt numFmtId="50080" formatCode="0.000"/>
-    <numFmt numFmtId="50081" formatCode="0.000"/>
-    <numFmt numFmtId="50082" formatCode="0.000"/>
-    <numFmt numFmtId="50083" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -484,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -714,7 +670,10 @@
     <xf numFmtId="50070" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50071" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50071" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50072" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -726,34 +685,7 @@
     <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50075" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50083" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50075" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1054,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -1062,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>6.742</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="3">
@@ -1070,15 +1002,15 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>49</v>
+      <c r="B4" s="8" t="n">
+        <v>-0.008</v>
       </c>
     </row>
     <row r="5">
@@ -1086,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1094,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>5.965</v>
+        <v>1.639</v>
       </c>
     </row>
     <row r="7">
@@ -1102,15 +1034,15 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>-3.046</v>
+      <c r="B8" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -1118,15 +1050,15 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>53</v>
+      <c r="B10" s="14" t="n">
+        <v>0.419</v>
       </c>
     </row>
     <row r="11">
@@ -1134,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -1142,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-2.263</v>
+        <v>-0.911</v>
       </c>
     </row>
     <row r="13">
@@ -1150,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -1158,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-4.559</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="15">
@@ -1166,15 +1098,15 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>57</v>
+      <c r="B16" s="20" t="n">
+        <v>-0.297</v>
       </c>
     </row>
     <row r="17">
@@ -1182,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1190,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>0</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="19">
@@ -1198,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -1206,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-6.417</v>
+        <v>-0.265</v>
       </c>
     </row>
     <row r="21">
@@ -1214,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1222,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-6.586</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23">
@@ -1230,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -1238,7 +1170,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-7.007</v>
+        <v>-0.058</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1254,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-7.065</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="27">
@@ -1262,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -1270,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-6.986</v>
+        <v>-0.084</v>
       </c>
     </row>
     <row r="29">
@@ -1278,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1286,7 +1218,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-6.442</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="31">
@@ -1294,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -1302,7 +1234,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-6.442</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="33">
@@ -1310,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34">
@@ -1318,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-6.676</v>
+        <v>-0.099</v>
       </c>
     </row>
     <row r="35">
@@ -1326,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36">
@@ -1334,7 +1266,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-5.533</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="37">
@@ -1342,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -1350,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-6.512</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="39">
@@ -1358,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1366,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-6.138</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="41">
@@ -1374,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
@@ -1382,7 +1314,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-5.992</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="43">
@@ -1390,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44">
@@ -1398,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>-5.831</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="45">
@@ -1406,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
@@ -1414,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>-6.349</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="47">
@@ -1422,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48">
@@ -1430,7 +1362,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>-6.427</v>
+        <v>-0.568</v>
       </c>
     </row>
     <row r="49">
@@ -1438,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50">
@@ -1446,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>-6.022</v>
+        <v>-0.486</v>
       </c>
     </row>
     <row r="51">
@@ -1454,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52">
@@ -1462,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>-5.318</v>
+        <v>-0.285</v>
       </c>
     </row>
     <row r="53">
@@ -1470,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -1478,7 +1410,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="n">
-        <v>-4.636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1486,15 +1418,15 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="60" t="s">
-        <v>77</v>
+      <c r="B56" s="60" t="n">
+        <v>0.054</v>
       </c>
     </row>
     <row r="57">
@@ -1502,15 +1434,15 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="s">
-        <v>79</v>
+      <c r="B58" s="62" t="n">
+        <v>-0.003</v>
       </c>
     </row>
     <row r="59">
@@ -1518,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
@@ -1526,7 +1458,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="64" t="n">
-        <v>-6.088</v>
+        <v>-0.312</v>
       </c>
     </row>
     <row r="61">
@@ -1534,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
@@ -1542,7 +1474,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="66" t="n">
-        <v>-6.74</v>
+        <v>-0.432</v>
       </c>
     </row>
     <row r="63">
@@ -1550,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
@@ -1558,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="68" t="n">
-        <v>-6.291</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="65">
@@ -1566,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
@@ -1574,7 +1506,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="n">
-        <v>-5.115</v>
+        <v>-0.456</v>
       </c>
     </row>
     <row r="67">
@@ -1582,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
@@ -1590,7 +1522,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="n">
-        <v>-6.7</v>
+        <v>-0.232</v>
       </c>
     </row>
     <row r="69">
@@ -1598,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -1606,7 +1538,7 @@
         <v>35</v>
       </c>
       <c r="B70" s="74" t="n">
-        <v>-6.827</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="71">
@@ -1614,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
@@ -1622,7 +1554,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="76" t="n">
-        <v>-6.174</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="73">
@@ -1630,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74">
@@ -1638,114 +1570,50 @@
         <v>37</v>
       </c>
       <c r="B74" s="78" t="n">
-        <v>-6.566</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="79" t="s">
-        <v>88</v>
+        <v>38</v>
+      </c>
+      <c r="B75" s="79" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B76" s="80" t="n">
-        <v>-6.831</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="B77" s="81" t="n">
+        <v>1.573</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>39</v>
+      <c r="A78" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B78" s="82" t="n">
-        <v>-7.057</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="84" t="n">
-        <v>-5.979</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="85" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="86" t="n">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A79" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B83" s="87" t="n">
-        <v>0.088</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="88" t="n">
-        <v>0.039</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="89" t="n">
-        <v>1.785</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B86" s="90" t="n">
-        <v>0.003</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="4"/>
+      <c r="B79" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -146,119 +152,149 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.959) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.056) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.094) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.344 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.069) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.026) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.181) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.004) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.174) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.172) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.360) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.173) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.108) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.023) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.035) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.048) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.071) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.011) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.994) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.990) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.978) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.968) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.969) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.966) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.965) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.971) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.975) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.985) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.993) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.989) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.995) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.036) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.027) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.075) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.053) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.028) </t>
+    <t xml:space="preserve">2.001 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.866)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.930)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.962 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.976)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.812 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.928)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.044)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.900)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.060)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.059)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.546 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.223)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.815 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.918)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.907)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.789 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.901)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.903)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.823 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.885)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.893)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.888)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.884)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.882)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.878)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.874)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.873)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.871)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.145 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.066 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.875)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.897 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.879)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.804 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.881)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.941 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.890)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.028 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.894)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.977 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.904 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.969)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.982 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.950)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.927)  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="76">
+  <numFmts count="80">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -335,6 +371,10 @@
     <numFmt numFmtId="50073" formatCode="0.000"/>
     <numFmt numFmtId="50074" formatCode="0.000"/>
     <numFmt numFmtId="50075" formatCode="0.000"/>
+    <numFmt numFmtId="50076" formatCode="0.000"/>
+    <numFmt numFmtId="50077" formatCode="0.000"/>
+    <numFmt numFmtId="50078" formatCode="0.000"/>
+    <numFmt numFmtId="50079" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -440,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -670,22 +710,34 @@
     <xf numFmtId="50070" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50071" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50071" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50072" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50073" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50075" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50072" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50073" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50075" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -986,15 +1038,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.328</v>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1002,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>-0.008</v>
+        <v>-0.426</v>
       </c>
     </row>
     <row r="5">
@@ -1018,15 +1070,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>1.639</v>
+      <c r="B6" s="10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7">
@@ -1034,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -1042,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1050,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1058,7 +1110,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>0.419</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
@@ -1074,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.911</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="13">
@@ -1082,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
@@ -1090,7 +1142,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.089</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="15">
@@ -1098,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -1106,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.297</v>
+        <v>-1.728</v>
       </c>
     </row>
     <row r="17">
@@ -1114,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -1122,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.135</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="19">
@@ -1130,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1138,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.265</v>
+        <v>-1.842</v>
       </c>
     </row>
     <row r="21">
@@ -1146,15 +1198,15 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="26" t="n">
-        <v>0.01</v>
+      <c r="B22" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -1170,7 +1222,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.058</v>
+        <v>-1.938</v>
       </c>
     </row>
     <row r="25">
@@ -1178,15 +1230,15 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30" t="n">
-        <v>0.029</v>
+      <c r="B26" s="30" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -1194,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -1202,7 +1254,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.084</v>
+        <v>-1.755</v>
       </c>
     </row>
     <row r="29">
@@ -1210,15 +1262,15 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="34" t="n">
-        <v>0.146</v>
+      <c r="B30" s="34" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -1226,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32">
@@ -1234,7 +1286,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>0.019</v>
+        <v>-1.425</v>
       </c>
     </row>
     <row r="33">
@@ -1242,15 +1294,15 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="38" t="n">
-        <v>-0.099</v>
+      <c r="B34" s="38" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -1258,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
@@ -1266,7 +1318,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>0.09</v>
+        <v>-1.697</v>
       </c>
     </row>
     <row r="37">
@@ -1274,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -1282,7 +1334,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>0.099</v>
+        <v>-1.634</v>
       </c>
     </row>
     <row r="39">
@@ -1290,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40">
@@ -1298,7 +1350,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>0.182</v>
+        <v>-1.495</v>
       </c>
     </row>
     <row r="41">
@@ -1306,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42">
@@ -1314,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.148</v>
+        <v>-1.626</v>
       </c>
     </row>
     <row r="43">
@@ -1322,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1330,7 +1382,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.079</v>
+        <v>-1.578</v>
       </c>
     </row>
     <row r="45">
@@ -1338,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46">
@@ -1346,7 +1398,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>0.188</v>
+        <v>-1.498</v>
       </c>
     </row>
     <row r="47">
@@ -1354,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
@@ -1362,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>-0.568</v>
+        <v>-1.457</v>
       </c>
     </row>
     <row r="49">
@@ -1370,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
@@ -1378,7 +1430,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>-0.486</v>
+        <v>-1.476</v>
       </c>
     </row>
     <row r="51">
@@ -1386,15 +1438,15 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="56" t="n">
-        <v>-0.285</v>
+      <c r="B52" s="56" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53">
@@ -1402,15 +1454,15 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="58" t="n">
-        <v>0</v>
+      <c r="B54" s="58" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="55">
@@ -1418,15 +1470,15 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="60" t="n">
-        <v>0.054</v>
+      <c r="B56" s="60" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -1434,15 +1486,15 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="n">
-        <v>-0.003</v>
+      <c r="B58" s="62" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -1450,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -1458,7 +1510,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="64" t="n">
-        <v>-0.312</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="61">
@@ -1466,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
@@ -1474,7 +1526,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="66" t="n">
-        <v>-0.432</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="63">
@@ -1482,15 +1534,15 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="n">
-        <v>0.01</v>
+      <c r="B64" s="68" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="65">
@@ -1498,15 +1550,15 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="70" t="n">
-        <v>-0.456</v>
+      <c r="B66" s="70" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="67">
@@ -1514,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68">
@@ -1522,7 +1574,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="n">
-        <v>-0.232</v>
+        <v>-1.758</v>
       </c>
     </row>
     <row r="69">
@@ -1530,15 +1582,15 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="n">
-        <v>-0.31</v>
+      <c r="B70" s="74" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="71">
@@ -1546,15 +1598,15 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="76" t="n">
-        <v>0.064</v>
+      <c r="B72" s="76" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="73">
@@ -1562,58 +1614,90 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="78" t="n">
-        <v>540</v>
+      <c r="B74" s="78" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" s="79" t="n">
-        <v>0.098</v>
+        <v>0</v>
+      </c>
+      <c r="B75" s="79" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" s="80" t="n">
-        <v>0.036</v>
+        <v>-1.608</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="81" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="82" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="81" t="n">
-        <v>1.573</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+      <c r="B79" s="83" t="n">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="82" t="n">
-        <v>0.021</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="4" t="s">
+      <c r="B80" s="84" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B79" s="4"/>
+      <c r="B81" s="85" t="n">
+        <v>2.265</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A83:B83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
   </si>
   <si>
@@ -152,149 +155,182 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.001 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.866)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.930)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.962 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.976)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.812 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.928)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.044)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.900)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.060)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.059)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.546 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.223)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.815 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.918)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.907)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.789 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.901)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.903)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.823 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.885)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.893)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.888)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.884)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.882)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.878)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.874)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.873)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.871)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.145 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.066 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.875)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.897 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.879)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.804 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.881)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.941 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.890)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.028 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.894)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.977 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.904 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.969)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.982 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.950)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.927)  </t>
+    <t xml:space="preserve">2.162 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.549)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.588)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.615)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.614)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.587)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.370 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.665)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.573)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.775)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.387 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.672)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.532 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.386 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.735 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.327 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.582)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.347 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.575)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.313 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.571)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.324 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.561)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.262 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.566)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.151 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.562)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.118 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.560)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.234 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.559)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.556)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.257 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.553)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.137 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.240 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.552)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.641 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.551)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.505 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.554)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.552 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.555)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.447 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.557)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.425 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.331 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.563)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.603 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.535 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.564)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.582 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.470 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.576)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.394 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.602)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.183 *  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="80">
+  <numFmts count="82">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -375,6 +411,8 @@
     <numFmt numFmtId="50077" formatCode="0.000"/>
     <numFmt numFmtId="50078" formatCode="0.000"/>
     <numFmt numFmtId="50079" formatCode="0.000"/>
+    <numFmt numFmtId="50080" formatCode="0.000"/>
+    <numFmt numFmtId="50081" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -480,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -722,22 +760,28 @@
     <xf numFmtId="50074" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50075" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50075" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1038,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1046,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1054,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -1062,7 +1106,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>-0.426</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="5">
@@ -1070,15 +1114,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>49</v>
+      <c r="B6" s="10" t="n">
+        <v>0.957</v>
       </c>
     </row>
     <row r="7">
@@ -1093,8 +1137,8 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>51</v>
+      <c r="B8" s="12" t="n">
+        <v>-0.843</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
@@ -1110,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>0.495</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="11">
@@ -1125,8 +1169,8 @@
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>0.018</v>
+      <c r="B12" s="16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1134,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1142,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.604</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="15">
@@ -1150,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -1158,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-1.728</v>
+        <v>-1.177</v>
       </c>
     </row>
     <row r="17">
@@ -1166,15 +1210,15 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="22" t="n">
-        <v>-2.01</v>
+      <c r="B18" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1182,15 +1226,15 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="24" t="n">
-        <v>-1.842</v>
+      <c r="B20" s="24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21">
@@ -1198,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
@@ -1206,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
@@ -1214,15 +1258,15 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="28" t="n">
-        <v>-1.938</v>
+      <c r="B24" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
@@ -1237,8 +1281,8 @@
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>59</v>
+      <c r="B26" s="30" t="n">
+        <v>-1.438</v>
       </c>
     </row>
     <row r="27">
@@ -1246,15 +1290,15 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="32" t="n">
-        <v>-1.755</v>
+      <c r="B28" s="32" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29">
@@ -1262,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30">
@@ -1270,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31">
@@ -1278,15 +1322,15 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="36" t="n">
-        <v>-1.425</v>
+      <c r="B32" s="36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="33">
@@ -1294,15 +1338,15 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>65</v>
+      <c r="B34" s="38" t="n">
+        <v>-1.069</v>
       </c>
     </row>
     <row r="35">
@@ -1310,15 +1354,15 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="40" t="n">
-        <v>-1.697</v>
+      <c r="B36" s="40" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37">
@@ -1326,15 +1370,15 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="42" t="n">
-        <v>-1.634</v>
+      <c r="B38" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -1342,15 +1386,15 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="44" t="n">
-        <v>-1.495</v>
+      <c r="B40" s="44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41">
@@ -1358,15 +1402,15 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="46" t="n">
-        <v>-1.626</v>
+      <c r="B42" s="46" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43">
@@ -1374,15 +1418,15 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="48" t="n">
-        <v>-1.578</v>
+      <c r="B44" s="48" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="45">
@@ -1390,15 +1434,15 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="50" t="n">
-        <v>-1.498</v>
+      <c r="B46" s="50" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47">
@@ -1406,15 +1450,15 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="52" t="n">
-        <v>-1.457</v>
+      <c r="B48" s="52" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="49">
@@ -1422,15 +1466,15 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="54" t="n">
-        <v>-1.476</v>
+      <c r="B50" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -1438,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -1446,7 +1490,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
@@ -1454,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54">
@@ -1462,7 +1506,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55">
@@ -1470,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56">
@@ -1478,7 +1522,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57">
@@ -1486,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1538,7 @@
         <v>29</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59">
@@ -1502,15 +1546,15 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="n">
-        <v>-1.6</v>
+      <c r="B60" s="64" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -1518,15 +1562,15 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="n">
-        <v>-1.69</v>
+      <c r="B62" s="66" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="63">
@@ -1534,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
@@ -1542,7 +1586,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65">
@@ -1550,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66">
@@ -1558,7 +1602,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67">
@@ -1566,15 +1610,15 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="72" t="n">
-        <v>-1.758</v>
+      <c r="B68" s="72" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="69">
@@ -1582,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
@@ -1590,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
@@ -1598,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72">
@@ -1606,7 +1650,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73">
@@ -1614,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74">
@@ -1622,7 +1666,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="78" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75">
@@ -1630,15 +1674,15 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="n">
-        <v>-1.608</v>
+      <c r="B76" s="80" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="77">
@@ -1646,58 +1690,74 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="n">
-        <v>764</v>
+      <c r="B78" s="82" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="83" t="n">
-        <v>0.103</v>
+        <v>0</v>
+      </c>
+      <c r="B79" s="83" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B80" s="84" t="n">
-        <v>0.058</v>
+        <v>910</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="85" t="n">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="85" t="n">
-        <v>2.265</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="s">
+      <c r="B82" s="86" t="n">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="s">
+      <c r="B83" s="87" t="n">
+        <v>3.142</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="4"/>
+      <c r="B84" s="88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1981</t>
@@ -155,175 +155,157 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.162 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.549)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.588)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.615)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.614)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.587)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.370 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.665)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.573)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.775)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.387 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.672)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.532 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.386 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.735 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.327 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.582)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.347 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.575)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.313 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.571)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.324 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.561)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.262 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.566)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.151 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.562)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.118 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.560)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.234 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.559)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.556)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.257 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.553)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.137 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.240 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.552)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.641 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.551)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.505 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.554)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.552 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.555)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.447 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.557)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.425 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.331 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.563)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.603 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.535 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.564)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.582 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.470 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.576)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.394 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.602)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.183 *  </t>
+    <t xml:space="preserve">7.154 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.305) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.556) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.702) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.687) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.091 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.550) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.009) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.436) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.668) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.047) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.046) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4.043) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.502) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.463) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.766 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.437) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.448) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.665 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.380) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.410) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.384) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.372) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.364) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.627 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.346) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.330) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.328) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.320) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.239 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.318) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.069 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.336) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.735 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.341) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.021 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.353) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.789 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.339) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.391) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.106 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.370) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.047 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.395) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.011 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.439) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.803 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.465) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.697) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.623) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3.536) </t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.203</v>
+        <v>3.718</v>
       </c>
     </row>
     <row r="5">
@@ -1122,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.957</v>
+        <v>6.397</v>
       </c>
     </row>
     <row r="7">
@@ -1138,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-0.843</v>
+        <v>-4.707</v>
       </c>
     </row>
     <row r="9">
@@ -1153,8 +1135,8 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>0.673</v>
+      <c r="B10" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -1162,15 +1144,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>53</v>
+      <c r="B12" s="16" t="n">
+        <v>4.435</v>
       </c>
     </row>
     <row r="13">
@@ -1186,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.835</v>
+        <v>-0.411</v>
       </c>
     </row>
     <row r="15">
@@ -1202,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-1.177</v>
+        <v>-6.337</v>
       </c>
     </row>
     <row r="17">
@@ -1217,8 +1199,8 @@
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>57</v>
+      <c r="B18" s="22" t="n">
+        <v>-6.914</v>
       </c>
     </row>
     <row r="19">
@@ -1226,15 +1208,15 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>59</v>
+      <c r="B20" s="24" t="n">
+        <v>-7.228</v>
       </c>
     </row>
     <row r="21">
@@ -1249,8 +1231,8 @@
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>60</v>
+      <c r="B22" s="26" t="n">
+        <v>-6.862</v>
       </c>
     </row>
     <row r="23">
@@ -1258,15 +1240,15 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>61</v>
+      <c r="B24" s="28" t="n">
+        <v>-7.563</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-1.438</v>
+        <v>-6.986</v>
       </c>
     </row>
     <row r="27">
@@ -1297,8 +1279,8 @@
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>62</v>
+      <c r="B28" s="32" t="n">
+        <v>-6.743</v>
       </c>
     </row>
     <row r="29">
@@ -1306,15 +1288,15 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>64</v>
+      <c r="B30" s="34" t="n">
+        <v>-6.791</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1312,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33">
@@ -1338,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -1346,7 +1328,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-1.069</v>
+        <v>-5.785</v>
       </c>
     </row>
     <row r="35">
@@ -1354,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1344,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -1370,15 +1352,15 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>70</v>
+      <c r="B38" s="42" t="n">
+        <v>-6.544</v>
       </c>
     </row>
     <row r="39">
@@ -1386,15 +1368,15 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>72</v>
+      <c r="B40" s="44" t="n">
+        <v>-6.017</v>
       </c>
     </row>
     <row r="41">
@@ -1402,15 +1384,15 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>74</v>
+      <c r="B42" s="46" t="n">
+        <v>-5.963</v>
       </c>
     </row>
     <row r="43">
@@ -1418,15 +1400,15 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="48" t="s">
-        <v>76</v>
+      <c r="B44" s="48" t="n">
+        <v>-6.441</v>
       </c>
     </row>
     <row r="45">
@@ -1434,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
@@ -1442,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
@@ -1450,15 +1432,15 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="52" t="s">
-        <v>79</v>
+      <c r="B48" s="52" t="n">
+        <v>-6.302</v>
       </c>
     </row>
     <row r="49">
@@ -1466,15 +1448,15 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="54" t="s">
-        <v>81</v>
+      <c r="B50" s="54" t="n">
+        <v>-5.53</v>
       </c>
     </row>
     <row r="51">
@@ -1482,15 +1464,15 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="56" t="s">
-        <v>82</v>
+      <c r="B52" s="56" t="n">
+        <v>-5.125</v>
       </c>
     </row>
     <row r="53">
@@ -1498,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54">
@@ -1506,7 +1488,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
@@ -1514,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56">
@@ -1522,7 +1504,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="60" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -1530,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -1538,7 +1520,7 @@
         <v>29</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59">
@@ -1546,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
@@ -1554,7 +1536,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61">
@@ -1562,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62">
@@ -1570,7 +1552,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
@@ -1578,15 +1560,15 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="s">
-        <v>93</v>
+      <c r="B64" s="68" t="n">
+        <v>-5.741</v>
       </c>
     </row>
     <row r="65">
@@ -1594,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -1602,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67">
@@ -1610,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68">
@@ -1618,7 +1600,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69">
@@ -1626,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
@@ -1634,7 +1616,7 @@
         <v>35</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
@@ -1650,7 +1632,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
@@ -1658,15 +1640,15 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="78" t="s">
-        <v>101</v>
+      <c r="B74" s="78" t="n">
+        <v>-6.66</v>
       </c>
     </row>
     <row r="75">
@@ -1674,15 +1656,15 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="s">
-        <v>99</v>
+      <c r="B76" s="80" t="n">
+        <v>-6.887</v>
       </c>
     </row>
     <row r="77">
@@ -1690,15 +1672,15 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="s">
-        <v>103</v>
+      <c r="B78" s="82" t="n">
+        <v>-5.809</v>
       </c>
     </row>
     <row r="79">
@@ -1706,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80">
@@ -1722,7 +1704,7 @@
         <v>41</v>
       </c>
       <c r="B81" s="85" t="n">
-        <v>0.121</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="82">
@@ -1730,7 +1712,7 @@
         <v>42</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>0.082</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="83">
@@ -1738,7 +1720,7 @@
         <v>43</v>
       </c>
       <c r="B83" s="87" t="n">
-        <v>3.142</v>
+        <v>1.611</v>
       </c>
     </row>
     <row r="84">
@@ -1746,7 +1728,7 @@
         <v>44</v>
       </c>
       <c r="B84" s="88" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="85">

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -155,157 +155,187 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">7.154 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.305) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.556) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.702) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.687) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.091 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.550) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.009) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.436) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.668) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.047) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.046) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4.043) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.502) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.463) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.766 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.437) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.448) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.665 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.380) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.410) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.384) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.372) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.364) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.627 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.346) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.330) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.328) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.320) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.239 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.318) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.069 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.336) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.735 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.341) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.021 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.353) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.789 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.339) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.391) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.106 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.370) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.047 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.395) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.011 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.439) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.803 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.465) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.697) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.623) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3.536) </t>
+    <t xml:space="preserve">2.164 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.312 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.392 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.536 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.387 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.740 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.329 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.350 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.314 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.325 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.263 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.154 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.121 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.235 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.259 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.139 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.241 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.643 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.509 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.555 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.449 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.427 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.335 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.605 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.539 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.584 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.475 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.401 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.477 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.190 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.549)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.591)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.615)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.613)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.590)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.666)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.571)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.775)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.672)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.582)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.575)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.561)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.567)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.562)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.560)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.559)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.556)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.553)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.552)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.551)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.554)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.555)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.557)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.563)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.564)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.576)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.602)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.587)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -500,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -631,7 +661,10 @@
     <xf numFmtId="50037" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50038" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -643,7 +676,7 @@
     <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50042" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50042" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50043" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -748,10 +781,7 @@
     <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -763,7 +793,13 @@
     <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1066,6 +1102,7 @@
       <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1074,672 +1111,494 @@
       <c r="B2" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="C2" s="50" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>3.718</v>
+        <v>0.871</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>-0.876</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>6.397</v>
+        <v>0.603</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-4.707</v>
+        <v>0.894</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>-1.177</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="n">
-        <v>4.435</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.411</v>
+        <v>-1.438</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="n">
-        <v>-6.337</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-6.914</v>
+        <v>-1.072</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="24" t="n">
-        <v>-7.228</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>58</v>
       </c>
+      <c r="C21" s="69" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="26" t="n">
-        <v>-6.862</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="28" t="n">
-        <v>-7.563</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="30" t="n">
-        <v>-6.986</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>56</v>
+        <v>63</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="32" t="n">
-        <v>-6.743</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="C29" s="77" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="34" t="n">
-        <v>-6.791</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="38" t="n">
-        <v>-5.785</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="C37" s="85" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="42" t="n">
-        <v>-6.544</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="86" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="44" t="n">
-        <v>-6.017</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="88" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <v>910</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-5.963</v>
+        <v>0.12</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="B43" s="47" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>-6.441</v>
+        <v>3.134</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="49" t="n">
         <v>0</v>
       </c>
-      <c r="B45" s="49" t="s">
-        <v>70</v>
+      <c r="C45" s="90" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="52" t="n">
-        <v>-6.302</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="54" t="n">
-        <v>-5.53</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="56" t="n">
-        <v>-5.125</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="68" t="n">
-        <v>-5.741</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="78" t="n">
-        <v>-6.66</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="80" t="n">
-        <v>-6.887</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="82" t="n">
-        <v>-5.809</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="84" t="n">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="85" t="n">
-        <v>0.066</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="86" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="87" t="n">
-        <v>1.611</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B84" s="88" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
+      <c r="A46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A85:B85"/>
+  <mergeCells count="2">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1981</t>
@@ -155,136 +155,133 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.164 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.312 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.392 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.536 *  </t>
+    <t xml:space="preserve">2.162 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.370 *  </t>
   </si>
   <si>
     <t xml:space="preserve">-1.387 *  </t>
   </si>
   <si>
-    <t xml:space="preserve">-1.740 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.329 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.350 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.314 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.325 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.263 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.154 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.121 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.235 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.259 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.139 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.241 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.643 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.509 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.555 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.449 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.427 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.335 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.605 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.539 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.584 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.475 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.401 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.477 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.190 *  </t>
+    <t xml:space="preserve">-1.532 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.386 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.735 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.327 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.347 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.313 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.324 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.262 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.151 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.118 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.234 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.257 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.137 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.240 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.641 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.505 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.552 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.447 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.425 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.331 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.603 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.535 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.582 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.470 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.394 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.183 *  </t>
   </si>
   <si>
     <t xml:space="preserve">(0.549)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.591)</t>
+    <t xml:space="preserve">(0.588)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.615)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.613)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.590)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.666)</t>
+    <t xml:space="preserve">(0.614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.587)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.665)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.775)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.672)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.582)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.575)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.571)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.775)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.672)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.582)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.575)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.573)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.561)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.567)</t>
+    <t xml:space="preserve">(0.566)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.562)</t>
@@ -326,13 +323,7 @@
     <t xml:space="preserve">(0.576)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.614)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.602)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.587)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1112,7 +1103,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1120,10 +1111,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.175</v>
+        <v>0.203</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1131,10 +1122,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.871</v>
+        <v>0.957</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -1142,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>-0.876</v>
+        <v>-0.843</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1153,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.603</v>
+        <v>0.673</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1167,7 +1158,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -1175,10 +1166,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.894</v>
+        <v>0.835</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -1189,7 +1180,7 @@
         <v>-1.177</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -1200,7 +1191,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1211,7 +1202,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -1222,7 +1213,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
@@ -1233,7 +1224,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1244,7 +1235,7 @@
         <v>-1.438</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -1255,7 +1246,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -1266,7 +1257,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -1277,7 +1268,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -1285,10 +1276,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-1.072</v>
+        <v>-1.069</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -1299,7 +1290,7 @@
         <v>56</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -1310,7 +1301,7 @@
         <v>57</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1321,7 +1312,7 @@
         <v>58</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -1332,7 +1323,7 @@
         <v>59</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -1343,7 +1334,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -1354,7 +1345,7 @@
         <v>54</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1365,7 +1356,7 @@
         <v>61</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -1376,7 +1367,7 @@
         <v>62</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -1387,7 +1378,7 @@
         <v>63</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28">
@@ -1398,7 +1389,7 @@
         <v>64</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29">
@@ -1409,7 +1400,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -1420,7 +1411,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1431,7 +1422,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -1442,7 +1433,7 @@
         <v>68</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -1453,7 +1444,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1464,7 +1455,7 @@
         <v>70</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -1475,7 +1466,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -1486,7 +1477,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
@@ -1497,7 +1488,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -1508,7 +1499,7 @@
         <v>74</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
@@ -1516,10 +1507,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40">
@@ -1527,10 +1518,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1541,7 +1532,7 @@
         <v>910</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -1549,10 +1540,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -1563,7 +1554,7 @@
         <v>0.082</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44">
@@ -1571,10 +1562,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>3.134</v>
+        <v>3.142</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -1585,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -155,175 +155,181 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.162 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.370 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.387 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.532 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.386 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.735 *  </t>
+    <t xml:space="preserve">2.178 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.275 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.937 ***</t>
   </si>
   <si>
     <t xml:space="preserve">-1.327 *  </t>
   </si>
   <si>
-    <t xml:space="preserve">-1.347 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.313 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.324 *  </t>
+    <t xml:space="preserve">-1.473 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.385 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.675 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.438 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.360 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.333 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.346 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.064 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.340 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.279 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.161 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.119 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.244 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.216 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.122 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.071 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.455 ** </t>
   </si>
   <si>
     <t xml:space="preserve">-1.262 *  </t>
   </si>
   <si>
-    <t xml:space="preserve">-1.151 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.118 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.234 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.257 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.137 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.240 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.641 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.505 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.552 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.447 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.425 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.331 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.603 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.535 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.582 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.470 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.394 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.183 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.549)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.588)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.615)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.614)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.587)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.665)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.573)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.775)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.672)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.582)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.575)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.571)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.561)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.566)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.562)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.560)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.559)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.556)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.553)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.552)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.551)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.554)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.555)</t>
+    <t xml:space="preserve">-1.338 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.220 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.190 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.336 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.405 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.260 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.312 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.364 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.440 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.153 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.498)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.527)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.546)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.603)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.616)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.542)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.704)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.610)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.609)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.528)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.522)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.518)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.520)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.509)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.514)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.510)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.508)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.507)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.505)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.502)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.501)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.503)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.506)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.504)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.511)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.557)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.563)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.564)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.576)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.602)</t>
+    <t xml:space="preserve">(0.533)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1103,7 +1109,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -1111,32 +1117,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.203</v>
+        <v>-0.007</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>0.957</v>
+      <c r="B4" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>-0.843</v>
+      <c r="B5" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1144,21 +1150,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.673</v>
+        <v>0.919</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>48</v>
+      <c r="B7" s="11" t="n">
+        <v>0.327</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1166,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.835</v>
+        <v>0.107</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1186,7 @@
         <v>-1.177</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
@@ -1188,10 +1194,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -1199,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -1210,10 +1216,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -1221,21 +1227,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>-1.438</v>
+      <c r="B14" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -1243,10 +1249,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
@@ -1254,10 +1260,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -1265,21 +1271,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="n">
-        <v>-1.069</v>
+      <c r="B18" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -1287,10 +1293,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20">
@@ -1298,10 +1304,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
@@ -1309,10 +1315,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -1320,10 +1326,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1331,10 +1337,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -1342,10 +1348,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -1353,10 +1359,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -1364,10 +1370,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -1375,10 +1381,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1386,10 +1392,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -1397,10 +1403,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1408,10 +1414,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -1419,10 +1425,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1430,10 +1436,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1441,10 +1447,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -1452,10 +1458,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -1463,10 +1469,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -1474,10 +1480,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37">
@@ -1485,10 +1491,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38">
@@ -1496,10 +1502,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -1507,10 +1513,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
@@ -1518,10 +1524,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -1529,10 +1535,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>910</v>
+        <v>797</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -1540,10 +1546,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.121</v>
+        <v>0.114</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -1551,10 +1557,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>0.082</v>
+        <v>0.069</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -1562,10 +1568,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>3.142</v>
+        <v>2.56</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -1576,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -158,178 +158,181 @@
     <t xml:space="preserve">2.178 ***</t>
   </si>
   <si>
-    <t xml:space="preserve">1.275 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.937 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.327 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.473 *  </t>
+    <t xml:space="preserve">-1.286 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.466 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.378 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.524 *  </t>
   </si>
   <si>
     <t xml:space="preserve">-1.385 *  </t>
   </si>
   <si>
-    <t xml:space="preserve">-1.675 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.438 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.360 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.333 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.346 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.064 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.340 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.279 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.161 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.119 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.244 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.216 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.122 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.071 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.455 ** </t>
+    <t xml:space="preserve">-1.726 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.329 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.345 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.317 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.325 *  </t>
   </si>
   <si>
     <t xml:space="preserve">-1.262 *  </t>
   </si>
   <si>
-    <t xml:space="preserve">-1.338 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.220 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.190 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.336 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.405 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.260 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.312 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.364 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.440 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.153 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.498)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.527)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.546)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.603)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.616)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.542)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.704)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.610)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.609)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.528)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.522)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.518)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.520)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.509)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.514)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.510)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.508)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.507)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.505)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.502)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.501)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.503)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.506)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.504)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.511)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.557)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.533)</t>
+    <t xml:space="preserve">-1.155 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.125 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.243 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.353 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.154 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.271 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.649 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.523 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.515 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.460 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.425 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.336 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.555 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.553 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.659 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.485 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.407 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.482 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.196 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.559)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.588)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.606)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.608)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.663)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.680)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.607)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.790)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.685)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.684)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.593)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.586)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.582)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.583)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.572)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.577)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.570)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.569)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.566)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.563)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.562)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.561)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.564)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.565)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.574)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.580)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.625)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.613)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.598)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1109,7 +1112,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -1117,21 +1120,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>-0.007</v>
+        <v>0.347</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
+      <c r="B4" s="8" t="n">
+        <v>0.824</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -1139,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>81</v>
@@ -1150,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.919</v>
+        <v>1.1</v>
       </c>
       <c r="C6" s="54" t="s">
         <v>82</v>
@@ -1161,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.327</v>
+        <v>0.566</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>83</v>
@@ -1171,8 +1174,8 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>0.107</v>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C8" s="56" t="s">
         <v>84</v>
@@ -1237,8 +1240,8 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>54</v>
+      <c r="B14" s="18" t="n">
+        <v>-1.438</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>85</v>
@@ -1249,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="63" t="s">
         <v>88</v>
@@ -1260,7 +1263,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>89</v>
@@ -1271,7 +1274,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>90</v>
@@ -1281,8 +1284,8 @@
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>58</v>
+      <c r="B18" s="22" t="n">
+        <v>-1.071</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>91</v>
@@ -1293,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="67" t="s">
         <v>92</v>
@@ -1304,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>93</v>
@@ -1315,10 +1318,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -1326,10 +1329,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -1337,10 +1340,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -1348,10 +1351,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -1359,10 +1362,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -1370,10 +1373,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1381,10 +1384,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -1392,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>99</v>
@@ -1403,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="77" t="s">
         <v>100</v>
@@ -1414,10 +1417,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -1425,10 +1428,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -1436,10 +1439,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1447,10 +1450,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -1458,10 +1461,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -1469,10 +1472,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="83" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -1480,10 +1483,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="84" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -1491,10 +1494,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -1502,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="86" t="s">
         <v>104</v>
@@ -1513,10 +1516,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1524,10 +1527,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -1535,10 +1538,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>797</v>
+        <v>942</v>
       </c>
       <c r="C41" s="89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -1546,10 +1549,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.114</v>
+        <v>0.115</v>
       </c>
       <c r="C42" s="89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -1557,10 +1560,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>0.069</v>
+        <v>0.078</v>
       </c>
       <c r="C43" s="89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -1568,10 +1571,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>2.56</v>
+        <v>3.081</v>
       </c>
       <c r="C44" s="89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -1582,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">

--- a/IRR_ols1.xlsx
+++ b/IRR_ols1.xlsx
@@ -155,118 +155,112 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.178 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.286 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.466 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.378 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.524 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.385 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.726 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.329 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.345 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.317 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.325 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.262 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.155 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.125 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.243 *  </t>
+    <t xml:space="preserve">2.176 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.365 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.514 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.382 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.713 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.321 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.340 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.302 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.310 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.251 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.151 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.124 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.245 *  </t>
   </si>
   <si>
     <t xml:space="preserve">-1.353 *  </t>
   </si>
   <si>
-    <t xml:space="preserve">-1.154 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.271 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.649 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.523 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.515 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.460 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.425 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.336 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.555 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.553 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.659 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.485 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.407 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.482 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.196 *  </t>
+    <t xml:space="preserve">-1.258 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.149 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.266 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.641 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.521 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.509 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.471 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.427 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.347 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.567 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.674 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.497 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.435 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.511 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.224 *  </t>
   </si>
   <si>
     <t xml:space="preserve">(0.559)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.588)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.606)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.608)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.663)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.680)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.607)</t>
+    <t xml:space="preserve">(0.639)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.661)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.111)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.773)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.148)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.743)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.790)</t>
@@ -287,7 +281,7 @@
     <t xml:space="preserve">(0.582)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.583)</t>
+    <t xml:space="preserve">(0.584)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.572)</t>
@@ -296,7 +290,10 @@
     <t xml:space="preserve">(0.577)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.570)</t>
+    <t xml:space="preserve">(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.571)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.569)</t>
@@ -305,6 +302,9 @@
     <t xml:space="preserve">(0.566)</t>
   </si>
   <si>
+    <t xml:space="preserve">(0.564)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.563)</t>
   </si>
   <si>
@@ -314,12 +314,12 @@
     <t xml:space="preserve">(0.561)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.564)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.565)</t>
   </si>
   <si>
+    <t xml:space="preserve">(0.567)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.574)</t>
   </si>
   <si>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">(0.625)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.613)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.598)</t>
+    <t xml:space="preserve">(0.612)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.597)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1112,7 +1112,7 @@
         <v>47</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -1120,10 +1120,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.347</v>
+        <v>-1.163</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1131,21 +1131,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.824</v>
+        <v>1.021</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>48</v>
+      <c r="B5" s="9" t="n">
+        <v>1.491</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1153,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.1</v>
+        <v>0.63</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1164,21 +1164,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.566</v>
+        <v>-1.398</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>49</v>
+      <c r="B8" s="12" t="n">
+        <v>0.823</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -1189,7 +1189,7 @@
         <v>-1.177</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
@@ -1197,10 +1197,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1208,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
@@ -1219,10 +1219,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -1230,10 +1230,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1244,7 +1244,7 @@
         <v>-1.438</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -1252,10 +1252,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1263,10 +1263,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -1274,10 +1274,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -1285,10 +1285,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-1.071</v>
+        <v>-1.067</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1296,10 +1296,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1307,10 +1307,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="69" t="s">
         <v>92</v>
@@ -1329,10 +1329,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -1340,10 +1340,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -1351,10 +1351,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1362,10 +1362,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" s="73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1373,7 +1373,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="74" t="s">
         <v>97</v>
@@ -1384,7 +1384,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="75" t="s">
         <v>98</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>99</v>
@@ -1406,10 +1406,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -1417,10 +1417,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1428,10 +1428,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="79" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1439,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="80" t="s">
         <v>100</v>
@@ -1450,10 +1450,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -1461,10 +1461,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -1472,7 +1472,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="83" t="s">
         <v>102</v>
@@ -1483,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C36" s="84" t="s">
         <v>103</v>
@@ -1494,10 +1494,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38">
@@ -1505,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="86" t="s">
         <v>104</v>
@@ -1516,7 +1516,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="87" t="s">
         <v>105</v>
@@ -1527,7 +1527,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="88" t="s">
         <v>106</v>
@@ -1538,7 +1538,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C41" s="89" t="s">
         <v>107</v>
@@ -1571,7 +1571,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>3.081</v>
+        <v>3.085</v>
       </c>
       <c r="C44" s="89" t="s">
         <v>107</v>
